--- a/給与テーブル2023.3_-_コピー.xlsx
+++ b/給与テーブル2023.3_-_コピー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4d31e5f6ca96f1c/※DropBox/岩田の/ZENbook/給与テーブル/評価表_個人別/の 野田龍矢/202203/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{17F7F5AA-D58D-4588-8AFD-67FA6F0A49EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB77C80A-B8D7-491E-A6EC-8C66B5A97D82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355CF24F-9771-4955-BF03-F6DAD42C79F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="692" activeTab="1" xr2:uid="{6AF0F042-642F-4F40-BC13-77B59BA63830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="692" activeTab="3" xr2:uid="{6AF0F042-642F-4F40-BC13-77B59BA63830}"/>
   </bookViews>
   <sheets>
     <sheet name="一般評価シート" sheetId="10" r:id="rId1"/>
@@ -5077,44 +5077,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5125,87 +5206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5221,6 +5221,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5230,65 +5239,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5771,33 +5771,33 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="5" width="6.58203125" customWidth="1"/>
-    <col min="6" max="6" width="78.08203125" customWidth="1"/>
-    <col min="7" max="10" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="5" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="78.125" customWidth="1"/>
+    <col min="7" max="10" width="8.125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="1.4140625" customWidth="1"/>
+    <col min="12" max="12" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="107" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="119" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="107"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="119"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D5" s="2" t="s">
         <v>246</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="J5" s="106"/>
       <c r="K5" s="106"/>
     </row>
-    <row r="6" spans="2:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -5827,51 +5827,51 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-    </row>
-    <row r="7" spans="2:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="2:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="106">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="111" t="s">
         <v>189</v>
       </c>
       <c r="E7" s="106"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="111"/>
+      <c r="G7" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-    </row>
-    <row r="8" spans="2:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+    </row>
+    <row r="8" spans="2:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="106"/>
       <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-    </row>
-    <row r="9" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+    </row>
+    <row r="9" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>3</v>
       </c>
@@ -5883,15 +5883,15 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-    </row>
-    <row r="10" spans="2:11" ht="52" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+    </row>
+    <row r="10" spans="2:11" ht="51.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>4</v>
       </c>
@@ -5903,53 +5903,53 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-    </row>
-    <row r="11" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+    </row>
+    <row r="11" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="114" t="s">
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-    </row>
-    <row r="12" spans="2:11" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
+    </row>
+    <row r="12" spans="2:11" ht="35.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="99">
         <v>6</v>
       </c>
       <c r="C12" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="117" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="119"/>
-    </row>
-    <row r="13" spans="2:11" ht="35.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="118"/>
+    </row>
+    <row r="13" spans="2:11" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B13" s="30">
         <v>7</v>
       </c>
@@ -5961,15 +5961,15 @@
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="111" t="s">
+      <c r="G13" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-    </row>
-    <row r="14" spans="2:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="2:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>8</v>
       </c>
@@ -5981,15 +5981,15 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-    </row>
-    <row r="15" spans="2:11" ht="35" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+    </row>
+    <row r="15" spans="2:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>9</v>
       </c>
@@ -6001,15 +6001,15 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="109" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-    </row>
-    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+    </row>
+    <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="106" t="s">
         <v>51</v>
       </c>
@@ -6025,6 +6025,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
@@ -6039,12 +6045,6 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6067,122 +6067,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB64D3-9AC6-4F88-8179-105DD5B325D2}">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="11" max="11" width="0.9140625" customWidth="1"/>
+    <col min="1" max="1" width="0.375" customWidth="1"/>
+    <col min="11" max="11" width="0.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="H2" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="I2" s="147">
+      <c r="I2" s="120">
         <v>44652</v>
       </c>
-      <c r="J2" s="147"/>
-    </row>
-    <row r="4" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="123" t="s">
+      <c r="J2" s="120"/>
+    </row>
+    <row r="4" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="121" t="s">
         <v>254</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123" t="s">
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="123"/>
+      <c r="F4" s="121"/>
       <c r="G4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="123" t="s">
+      <c r="H4" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="I4" s="123"/>
+      <c r="I4" s="121"/>
       <c r="J4" s="37" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="106" t="s">
         <v>295</v>
       </c>
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
-      <c r="E5" s="148">
+      <c r="E5" s="122">
         <v>31390</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="122"/>
       <c r="G5" s="10">
         <v>36</v>
       </c>
-      <c r="H5" s="149">
+      <c r="H5" s="123">
         <v>43556</v>
       </c>
-      <c r="I5" s="149"/>
+      <c r="I5" s="123"/>
       <c r="J5" s="63"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="123" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="131" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="125" t="s">
         <v>293</v>
       </c>
-      <c r="I8" s="139"/>
-      <c r="J8" s="132"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="106" t="s">
         <v>292</v>
       </c>
       <c r="C9" s="106"/>
       <c r="D9" s="106"/>
-      <c r="E9" s="146">
+      <c r="E9" s="124">
         <v>242000</v>
       </c>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="140">
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="128">
         <f>E9/300500</f>
         <v>0.80532445923460894</v>
       </c>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="131" t="s">
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="125" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="132"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="46"/>
-      <c r="F10" s="131" t="s">
+      <c r="F10" s="125" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="126" t="s">
+      <c r="G10" s="127"/>
+      <c r="H10" s="131" t="s">
         <v>258</v>
       </c>
       <c r="I10" s="53" t="s">
@@ -6192,7 +6192,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="50" t="s">
         <v>276</v>
       </c>
@@ -6202,25 +6202,25 @@
       <c r="D11" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126" t="s">
+      <c r="E11" s="139"/>
+      <c r="F11" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="111">
         <f>C11*4</f>
         <v>12</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144">
+      <c r="H11" s="132"/>
+      <c r="I11" s="134">
         <f>$G11+$J18+$H29+$J40+9</f>
         <v>65</v>
       </c>
-      <c r="J11" s="134">
+      <c r="J11" s="136">
         <f>1+I29</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="47" t="s">
         <v>277</v>
       </c>
@@ -6230,14 +6230,14 @@
       <c r="D12" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="138"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="139"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="137"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -6248,14 +6248,14 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="128" t="s">
+    <row r="14" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="140" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="125" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="44" t="s">
         <v>287</v>
       </c>
@@ -6275,13 +6275,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="129"/>
-      <c r="C15" s="133">
+    <row r="15" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="141"/>
+      <c r="C15" s="143">
         <f>C12*2</f>
         <v>12</v>
       </c>
-      <c r="D15" s="134"/>
+      <c r="D15" s="136"/>
       <c r="E15" s="56" t="s">
         <v>284</v>
       </c>
@@ -6300,10 +6300,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="129"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
+    <row r="16" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="141"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
       <c r="E16" s="57" t="s">
         <v>285</v>
       </c>
@@ -6325,10 +6325,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="130"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="138"/>
+    <row r="17" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="142"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="137"/>
       <c r="E17" s="58" t="s">
         <v>286</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="25"/>
       <c r="H18" s="46"/>
       <c r="I18" s="67" t="s">
@@ -6363,7 +6363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="64">
         <v>2</v>
       </c>
@@ -6376,21 +6376,21 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="123" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="C20" s="123"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="43" t="s">
         <v>289</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="G20" s="123"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="43" t="s">
         <v>289</v>
       </c>
@@ -6399,104 +6399,104 @@
       </c>
       <c r="J20" s="65"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="138"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
       <c r="H21" s="31"/>
       <c r="I21" s="9"/>
       <c r="J21" s="65"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
         <v>1</v>
       </c>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
       <c r="H22" s="31"/>
       <c r="I22" s="9"/>
       <c r="J22" s="65"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="138"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="31"/>
       <c r="I23" s="9"/>
       <c r="J23" s="65"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
       <c r="H24" s="31"/>
       <c r="I24" s="9"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
       <c r="H25" s="31"/>
       <c r="I25" s="9"/>
       <c r="J25" s="65"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="138"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
       <c r="H26" s="31"/>
       <c r="I26" s="9"/>
       <c r="J26" s="65"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="138"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="31"/>
       <c r="I27" s="9"/>
       <c r="J27" s="65"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="31"/>
       <c r="I28" s="9"/>
       <c r="J28" s="65"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C29" s="65"/>
       <c r="D29" s="65"/>
       <c r="E29" s="65"/>
-      <c r="F29" s="120" t="s">
+      <c r="F29" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="120"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="66">
         <f>D21+D22+D23+D24+D25+D26+D27+D28+H21+H22+H23+H24+H25+H26+H27+H28</f>
         <v>0</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="J29" s="65"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="64">
         <v>3</v>
       </c>
@@ -6520,30 +6520,30 @@
       <c r="I30" s="65"/>
       <c r="J30" s="65"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="123" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="121" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="123"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="123" t="s">
+      <c r="E31" s="121" t="s">
         <v>259</v>
       </c>
-      <c r="F31" s="123"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="H31" s="123" t="s">
+      <c r="H31" s="121" t="s">
         <v>259</v>
       </c>
-      <c r="I31" s="123"/>
+      <c r="I31" s="121"/>
       <c r="J31" s="43" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="106">
         <v>2018.9</v>
       </c>
@@ -6560,11 +6560,11 @@
       <c r="I32" s="106"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="121">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="148">
         <v>2019.3</v>
       </c>
-      <c r="C33" s="122"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="2">
         <v>3</v>
       </c>
@@ -6577,11 +6577,11 @@
       <c r="I33" s="106"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="121">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="148">
         <v>2019.9</v>
       </c>
-      <c r="C34" s="122"/>
+      <c r="C34" s="149"/>
       <c r="D34" s="2">
         <v>3</v>
       </c>
@@ -6592,11 +6592,11 @@
       <c r="I34" s="106"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="121">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="148">
         <v>2020.3</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="149"/>
       <c r="D35" s="2">
         <v>4</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="I35" s="106"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="106">
         <v>2020.9</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="I36" s="106"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="106">
         <v>2021.3</v>
       </c>
@@ -6637,7 +6637,7 @@
       <c r="I37" s="106"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="106">
         <v>2021.9</v>
       </c>
@@ -6652,7 +6652,7 @@
       <c r="I38" s="106"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="106">
         <v>2022.3</v>
       </c>
@@ -6667,55 +6667,46 @@
       <c r="I39" s="106"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H40" s="120" t="s">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="H40" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="120"/>
+      <c r="I40" s="147"/>
       <c r="J40" s="66">
         <f>D32+D33+D34+D35+D36+D37+D38+D39+G32+G33+G34+G35+G36+G37+G38+G39+J32+J33+J34+J35+J36+J37+J38+J39</f>
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="F25:G25"/>
@@ -6728,31 +6719,40 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -6774,31 +6774,30 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" customWidth="1"/>
-    <col min="3" max="4" width="3.9140625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="7" width="3.83203125" customWidth="1"/>
-    <col min="9" max="10" width="3.9140625" customWidth="1"/>
-    <col min="12" max="13" width="3.9140625" customWidth="1"/>
+    <col min="2" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="7" width="3.875" customWidth="1"/>
+    <col min="9" max="10" width="3.875" customWidth="1"/>
+    <col min="12" max="13" width="3.875" customWidth="1"/>
     <col min="15" max="15" width="10.75" customWidth="1"/>
     <col min="16" max="16" width="0.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="106"/>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="148" t="s">
         <v>249</v>
       </c>
       <c r="D3" s="154"/>
-      <c r="E3" s="122"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="106" t="s">
         <v>250</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="106"/>
       <c r="C4" s="151" t="s">
         <v>271</v>
@@ -6842,7 +6841,7 @@
       <c r="N4" s="150"/>
       <c r="O4" s="106"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="10"/>
       <c r="C5" s="40" t="s">
         <v>227</v>
@@ -6870,7 +6869,7 @@
       <c r="N5" s="40"/>
       <c r="O5" s="40"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="2">
         <v>19</v>
       </c>
@@ -6897,7 +6896,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="2">
         <f>B6+1</f>
         <v>20</v>
@@ -6926,7 +6925,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="2">
         <f t="shared" ref="B8:B34" si="1">B7+1</f>
         <v>21</v>
@@ -6961,7 +6960,7 @@
         <v>187500</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6997,7 +6996,7 @@
         <v>196500</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7045,7 +7044,7 @@
         <v>222250</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7095,7 +7094,7 @@
         <v>229000</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B12" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -7145,7 +7144,7 @@
         <v>236000</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -7195,7 +7194,7 @@
         <v>241000</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -7245,7 +7244,7 @@
         <v>246000</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -7295,7 +7294,7 @@
         <v>257000</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7345,7 +7344,7 @@
         <v>263500</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7395,7 +7394,7 @@
         <v>275250</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7445,7 +7444,7 @@
         <v>278500</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7495,7 +7494,7 @@
         <v>279500</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7545,7 +7544,7 @@
         <v>286500</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7595,7 +7594,7 @@
         <v>293500</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7645,7 +7644,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7695,7 +7694,7 @@
         <v>300500</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7745,7 +7744,7 @@
         <v>306750</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7795,7 +7794,7 @@
         <v>308250</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="2">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7845,7 +7844,7 @@
         <v>313500</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="2">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7895,7 +7894,7 @@
         <v>328000</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7945,7 +7944,7 @@
         <v>328000</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B29" s="2">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7995,7 +7994,7 @@
         <v>334250</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B30" s="2">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8045,7 +8044,7 @@
         <v>334250</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B31" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8095,7 +8094,7 @@
         <v>335750</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8145,7 +8144,7 @@
         <v>340750</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B33" s="2">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8195,7 +8194,7 @@
         <v>340750</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B34" s="2">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8245,7 +8244,7 @@
         <v>340750</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B35" s="2">
         <f>B34+1</f>
         <v>48</v>
@@ -8295,7 +8294,7 @@
         <v>345750</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B36" s="2">
         <f t="shared" ref="B36:B37" si="8">B35+1</f>
         <v>49</v>
@@ -8345,7 +8344,7 @@
         <v>345750</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B37" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
@@ -8395,7 +8394,7 @@
         <v>345750</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E39" s="45">
         <f>SUM(E6:E37)</f>
         <v>8544000</v>
@@ -8440,64 +8439,64 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.4140625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" customWidth="1"/>
-    <col min="8" max="9" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="17.4140625" customWidth="1"/>
-    <col min="11" max="12" width="6.83203125" customWidth="1"/>
-    <col min="13" max="13" width="17.4140625" customWidth="1"/>
-    <col min="14" max="15" width="6.58203125" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="9" width="6.875" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="12" width="6.875" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
+    <col min="14" max="15" width="6.625" customWidth="1"/>
     <col min="16" max="16" width="17.25" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" customWidth="1"/>
+    <col min="18" max="18" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="160" t="s">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="C4" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="160"/>
-    </row>
-    <row r="5" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="159" t="s">
+      <c r="D4" s="156"/>
+    </row>
+    <row r="5" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159" t="s">
+      <c r="D5" s="155"/>
+      <c r="E5" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159" t="s">
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159" t="s">
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159" t="s">
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-    </row>
-    <row r="6" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+    </row>
+    <row r="6" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="72"/>
       <c r="C6" s="79" t="s">
         <v>22</v>
@@ -8543,7 +8542,7 @@
       </c>
       <c r="Q6" s="75"/>
     </row>
-    <row r="7" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="72" t="s">
         <v>1</v>
       </c>
@@ -8597,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="72" t="s">
         <v>2</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="72" t="s">
         <v>3</v>
       </c>
@@ -8724,7 +8723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="72" t="s">
         <v>4</v>
       </c>
@@ -8788,7 +8787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="73" t="s">
         <v>5</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="73" t="s">
         <v>6</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="72" t="s">
         <v>7</v>
       </c>
@@ -8980,7 +8979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="72" t="s">
         <v>8</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="72" t="s">
         <v>9</v>
       </c>
@@ -9108,7 +9107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="72" t="s">
         <v>17</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="72" t="s">
         <v>16</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="72" t="s">
         <v>18</v>
       </c>
@@ -9300,7 +9299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="72" t="s">
         <v>19</v>
       </c>
@@ -9354,7 +9353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="72" t="s">
         <v>20</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="72" t="s">
         <v>21</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="72" t="s">
         <v>52</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="72" t="s">
         <v>53</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="72" t="s">
         <v>54</v>
       </c>
@@ -9596,7 +9595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="72" t="s">
         <v>55</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="72" t="s">
         <v>56</v>
       </c>
@@ -9678,26 +9677,26 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="145" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B28" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="121" t="s">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B29" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="122"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="2">
-        <v>926</v>
-      </c>
-      <c r="E29" s="121"/>
+        <v>986</v>
+      </c>
+      <c r="E29" s="148"/>
       <c r="F29" s="154"/>
-      <c r="G29" s="122"/>
+      <c r="G29" s="149"/>
       <c r="M29" s="2" t="s">
         <v>25</v>
       </c>
@@ -9709,100 +9708,100 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="121" t="s">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B30" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="122"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="2">
         <f>D29*8</f>
-        <v>7408</v>
-      </c>
-      <c r="E30" s="155" t="s">
+        <v>7888</v>
+      </c>
+      <c r="E30" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
       <c r="M30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="158">
+      <c r="N30" s="157">
         <v>10000</v>
       </c>
-      <c r="O30" s="158"/>
+      <c r="O30" s="157"/>
       <c r="P30" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="121" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B31" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="122"/>
+      <c r="C31" s="149"/>
       <c r="D31" s="2">
         <f>D29*160</f>
-        <v>148160</v>
-      </c>
-      <c r="E31" s="155" t="s">
+        <v>157760</v>
+      </c>
+      <c r="E31" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="156"/>
-      <c r="G31" s="157"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="160"/>
       <c r="M31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N31" s="158">
+      <c r="N31" s="157">
         <v>40000</v>
       </c>
-      <c r="O31" s="158"/>
+      <c r="O31" s="157"/>
       <c r="P31" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="M32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="158">
+      <c r="N32" s="157">
         <v>70000</v>
       </c>
-      <c r="O32" s="158"/>
+      <c r="O32" s="157"/>
       <c r="P32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="158">
+      <c r="N33" s="157">
         <v>100000</v>
       </c>
-      <c r="O33" s="158"/>
+      <c r="O33" s="157"/>
       <c r="P33" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="13:16" x14ac:dyDescent="0.4">
       <c r="M34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="158">
+      <c r="N34" s="157">
         <v>100000</v>
       </c>
-      <c r="O34" s="158"/>
+      <c r="O34" s="157"/>
       <c r="P34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N31:O31"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="B29:C29"/>
@@ -9810,12 +9809,12 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9834,21 +9833,21 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="62.58203125" customWidth="1"/>
-    <col min="4" max="6" width="6.58203125" customWidth="1"/>
-    <col min="7" max="7" width="62.58203125" customWidth="1"/>
-    <col min="8" max="9" width="6.58203125" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" customWidth="1"/>
-    <col min="11" max="11" width="38.58203125" customWidth="1"/>
-    <col min="12" max="13" width="6.58203125" customWidth="1"/>
-    <col min="14" max="14" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="62.625" customWidth="1"/>
+    <col min="4" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="62.625" customWidth="1"/>
+    <col min="8" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="2.125" customWidth="1"/>
+    <col min="11" max="11" width="38.625" customWidth="1"/>
+    <col min="12" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="0.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>294</v>
       </c>
@@ -9856,17 +9855,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>182</v>
       </c>
@@ -9874,57 +9873,57 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:13" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="22" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:13" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="11" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="168" t="s">
+    <row r="10" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="K11" s="169" t="s">
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="K11" s="161" t="s">
         <v>261</v>
       </c>
-      <c r="L11" s="170"/>
-      <c r="M11" s="171"/>
-    </row>
-    <row r="12" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="162" t="s">
+      <c r="L11" s="162"/>
+      <c r="M11" s="163"/>
+    </row>
+    <row r="12" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="170" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="120" t="s">
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="147" t="s">
         <v>263</v>
       </c>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="174"/>
-    </row>
-    <row r="13" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="166"/>
+    </row>
+    <row r="13" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>220</v>
       </c>
@@ -9945,15 +9944,15 @@
         <v>3</v>
       </c>
       <c r="I13" s="31"/>
-      <c r="K13" s="166" t="s">
+      <c r="K13" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108">
+      <c r="L13" s="111"/>
+      <c r="M13" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>221</v>
       </c>
@@ -9974,11 +9973,11 @@
         <v>3</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-    </row>
-    <row r="15" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="168"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+    </row>
+    <row r="15" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>222</v>
       </c>
@@ -9999,15 +9998,15 @@
       <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="K15" s="166" t="s">
+      <c r="K15" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108">
+      <c r="L15" s="111"/>
+      <c r="M15" s="111">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>223</v>
       </c>
@@ -10028,11 +10027,11 @@
       <c r="I16" s="10">
         <v>2</v>
       </c>
-      <c r="K16" s="167"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-    </row>
-    <row r="17" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K16" s="168"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+    </row>
+    <row r="17" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>224</v>
       </c>
@@ -10055,15 +10054,15 @@
       <c r="I17" s="10">
         <v>1</v>
       </c>
-      <c r="K17" s="166" t="s">
+      <c r="K17" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="L17" s="108">
+      <c r="L17" s="111">
         <v>1</v>
       </c>
-      <c r="M17" s="108"/>
-    </row>
-    <row r="18" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M17" s="111"/>
+    </row>
+    <row r="18" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>224</v>
       </c>
@@ -10086,11 +10085,11 @@
       <c r="I18" s="10">
         <v>2</v>
       </c>
-      <c r="K18" s="167"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-    </row>
-    <row r="19" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="168"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+    </row>
+    <row r="19" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>225</v>
       </c>
@@ -10116,12 +10115,12 @@
       <c r="K19" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108">
+      <c r="L19" s="111"/>
+      <c r="M19" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>226</v>
       </c>
@@ -10145,10 +10144,10 @@
       <c r="K20" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-    </row>
-    <row r="21" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+    </row>
+    <row r="21" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>227</v>
       </c>
@@ -10165,15 +10164,15 @@
         <v>1</v>
       </c>
       <c r="I21" s="10"/>
-      <c r="K21" s="177" t="s">
+      <c r="K21" s="173" t="s">
         <v>175</v>
       </c>
-      <c r="L21" s="108">
+      <c r="L21" s="111">
         <v>3</v>
       </c>
-      <c r="M21" s="108"/>
-    </row>
-    <row r="22" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M21" s="111"/>
+    </row>
+    <row r="22" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>227</v>
       </c>
@@ -10190,11 +10189,11 @@
       <c r="I22" s="10">
         <v>1</v>
       </c>
-      <c r="K22" s="111"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-    </row>
-    <row r="23" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K22" s="107"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+    </row>
+    <row r="23" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K23" s="2" t="s">
         <v>139</v>
       </c>
@@ -10203,17 +10202,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="161" t="s">
+    <row r="24" spans="2:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="172" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
       <c r="K24" s="16" t="s">
         <v>200</v>
       </c>
@@ -10222,19 +10221,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="162" t="s">
+    <row r="25" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="120" t="s">
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="147" t="s">
         <v>219</v>
       </c>
-      <c r="G25" s="120"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
       <c r="K25" s="2" t="s">
         <v>201</v>
       </c>
@@ -10243,7 +10242,7 @@
       </c>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>220</v>
       </c>
@@ -10267,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>221</v>
       </c>
@@ -10290,13 +10289,13 @@
       <c r="I27" s="10">
         <v>2</v>
       </c>
-      <c r="K27" s="163" t="s">
+      <c r="K27" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-    </row>
-    <row r="28" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+    </row>
+    <row r="28" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>222</v>
       </c>
@@ -10317,13 +10316,13 @@
       <c r="I28" s="10">
         <v>2</v>
       </c>
-      <c r="K28" s="163" t="s">
+      <c r="K28" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-    </row>
-    <row r="29" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+    </row>
+    <row r="29" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>223</v>
       </c>
@@ -10344,13 +10343,13 @@
       <c r="I29" s="10">
         <v>2</v>
       </c>
-      <c r="K29" s="163" t="s">
+      <c r="K29" s="171" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-    </row>
-    <row r="30" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+    </row>
+    <row r="30" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
         <v>224</v>
       </c>
@@ -10371,13 +10370,13 @@
       <c r="I30" s="10">
         <v>2</v>
       </c>
-      <c r="K30" s="163" t="s">
+      <c r="K30" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-    </row>
-    <row r="31" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+    </row>
+    <row r="31" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
         <v>225</v>
       </c>
@@ -10392,13 +10391,13 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="10"/>
-      <c r="K31" s="163" t="s">
+      <c r="K31" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-    </row>
-    <row r="32" spans="2:13" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+    </row>
+    <row r="32" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
         <v>226</v>
       </c>
@@ -10412,7 +10411,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="35" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="27" t="s">
         <v>196</v>
       </c>
@@ -10420,13 +10419,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="37" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
         <v>170</v>
       </c>
@@ -10434,68 +10433,68 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K43" s="169" t="s">
+    <row r="43" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K43" s="161" t="s">
         <v>202</v>
       </c>
-      <c r="L43" s="170"/>
-      <c r="M43" s="171"/>
-    </row>
-    <row r="44" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="168" t="s">
+      <c r="L43" s="162"/>
+      <c r="M43" s="163"/>
+    </row>
+    <row r="44" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C44" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="174"/>
-    </row>
-    <row r="45" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="162" t="s">
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="166"/>
+    </row>
+    <row r="45" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C45" s="170" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="162"/>
-      <c r="E45" s="162"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
       <c r="F45" s="34"/>
-      <c r="G45" s="120" t="s">
+      <c r="G45" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="K45" s="166" t="s">
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="K45" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="L45" s="108"/>
-      <c r="M45" s="108">
+      <c r="L45" s="111"/>
+      <c r="M45" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C46" s="2" t="s">
         <v>99</v>
       </c>
@@ -10511,11 +10510,11 @@
         <v>1</v>
       </c>
       <c r="I46" s="31"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-    </row>
-    <row r="47" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K46" s="168"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+    </row>
+    <row r="47" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
@@ -10531,15 +10530,15 @@
         <v>3</v>
       </c>
       <c r="I47" s="10"/>
-      <c r="K47" s="166" t="s">
+      <c r="K47" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108">
+      <c r="L47" s="111"/>
+      <c r="M47" s="111">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C48" s="2" t="s">
         <v>100</v>
       </c>
@@ -10555,11 +10554,11 @@
       <c r="I48" s="10">
         <v>1</v>
       </c>
-      <c r="K48" s="167"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-    </row>
-    <row r="49" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K48" s="168"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+    </row>
+    <row r="49" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
@@ -10575,22 +10574,22 @@
       <c r="I49" s="10">
         <v>2</v>
       </c>
-      <c r="K49" s="166" t="s">
+      <c r="K49" s="167" t="s">
         <v>174</v>
       </c>
-      <c r="L49" s="108">
+      <c r="L49" s="111">
         <v>1</v>
       </c>
-      <c r="M49" s="108"/>
-    </row>
-    <row r="50" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M49" s="111"/>
+    </row>
+    <row r="50" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="108">
+      <c r="D50" s="111">
         <v>3</v>
       </c>
-      <c r="E50" s="108">
+      <c r="E50" s="111">
         <v>1</v>
       </c>
       <c r="F50" s="29"/>
@@ -10601,16 +10600,16 @@
       <c r="I50" s="10">
         <v>2</v>
       </c>
-      <c r="K50" s="167"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109"/>
-    </row>
-    <row r="51" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50" s="168"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+    </row>
+    <row r="51" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C51" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
       <c r="F51" s="30"/>
       <c r="G51" s="28" t="s">
         <v>198</v>
@@ -10622,12 +10621,12 @@
       <c r="K51" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="108"/>
-      <c r="M51" s="108">
+      <c r="L51" s="111"/>
+      <c r="M51" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C52" s="2" t="s">
         <v>128</v>
       </c>
@@ -10648,10 +10647,10 @@
       <c r="K52" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="L52" s="109"/>
-      <c r="M52" s="109"/>
-    </row>
-    <row r="53" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L52" s="110"/>
+      <c r="M52" s="110"/>
+    </row>
+    <row r="53" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C53" s="2" t="s">
         <v>129</v>
       </c>
@@ -10667,15 +10666,15 @@
         <v>1</v>
       </c>
       <c r="I53" s="10"/>
-      <c r="K53" s="177" t="s">
+      <c r="K53" s="173" t="s">
         <v>175</v>
       </c>
-      <c r="L53" s="108">
+      <c r="L53" s="111">
         <v>3</v>
       </c>
-      <c r="M53" s="108"/>
-    </row>
-    <row r="54" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M53" s="111"/>
+    </row>
+    <row r="54" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="2"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -10687,11 +10686,11 @@
       <c r="I54" s="10">
         <v>1</v>
       </c>
-      <c r="K54" s="111"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109"/>
-    </row>
-    <row r="55" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K54" s="107"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="110"/>
+    </row>
+    <row r="55" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K55" s="15" t="s">
         <v>139</v>
       </c>
@@ -10700,16 +10699,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" s="161" t="s">
+    <row r="56" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
       <c r="K56" s="16" t="s">
         <v>200</v>
       </c>
@@ -10718,18 +10717,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="162" t="s">
+    <row r="57" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="170" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
       <c r="F57" s="34"/>
-      <c r="G57" s="120" t="s">
+      <c r="G57" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
       <c r="K57" s="2" t="s">
         <v>201</v>
       </c>
@@ -10738,7 +10737,7 @@
       </c>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C58" s="2" t="s">
         <v>116</v>
       </c>
@@ -10757,7 +10756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="2" t="s">
         <v>117</v>
       </c>
@@ -10775,13 +10774,13 @@
       <c r="I59" s="2">
         <v>2</v>
       </c>
-      <c r="K59" s="163" t="s">
+      <c r="K59" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="L59" s="163"/>
-      <c r="M59" s="163"/>
-    </row>
-    <row r="60" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+    </row>
+    <row r="60" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C60" s="2" t="s">
         <v>118</v>
       </c>
@@ -10797,13 +10796,13 @@
       <c r="I60" s="2">
         <v>2</v>
       </c>
-      <c r="K60" s="163" t="s">
+      <c r="K60" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="L60" s="163"/>
-      <c r="M60" s="163"/>
-    </row>
-    <row r="61" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+    </row>
+    <row r="61" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C61" s="2" t="s">
         <v>119</v>
       </c>
@@ -10819,13 +10818,13 @@
       <c r="I61" s="2">
         <v>2</v>
       </c>
-      <c r="K61" s="163" t="s">
+      <c r="K61" s="171" t="s">
         <v>113</v>
       </c>
-      <c r="L61" s="163"/>
-      <c r="M61" s="163"/>
-    </row>
-    <row r="62" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L61" s="171"/>
+      <c r="M61" s="171"/>
+    </row>
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -10833,13 +10832,13 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-      <c r="K62" s="163" t="s">
+      <c r="K62" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="L62" s="163"/>
-      <c r="M62" s="163"/>
-    </row>
-    <row r="63" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L62" s="171"/>
+      <c r="M62" s="171"/>
+    </row>
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -10847,13 +10846,13 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="K63" s="163" t="s">
+      <c r="K63" s="171" t="s">
         <v>112</v>
       </c>
-      <c r="L63" s="163"/>
-      <c r="M63" s="163"/>
-    </row>
-    <row r="64" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L63" s="171"/>
+      <c r="M63" s="171"/>
+    </row>
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -10862,7 +10861,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="3:13" ht="20" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -10871,82 +10870,82 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="67" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="69" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C73" t="s">
         <v>98</v>
       </c>
-      <c r="K73" s="169" t="s">
+      <c r="K73" s="161" t="s">
         <v>135</v>
       </c>
-      <c r="L73" s="170"/>
-      <c r="M73" s="171"/>
-    </row>
-    <row r="74" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K74" s="172"/>
-      <c r="L74" s="173"/>
-      <c r="M74" s="174"/>
-    </row>
-    <row r="75" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" s="168" t="s">
+      <c r="L73" s="162"/>
+      <c r="M73" s="163"/>
+    </row>
+    <row r="74" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K74" s="164"/>
+      <c r="L74" s="165"/>
+      <c r="M74" s="166"/>
+    </row>
+    <row r="75" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C75" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="168"/>
-      <c r="E75" s="168"/>
-      <c r="F75" s="168"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="168"/>
-      <c r="I75" s="168"/>
-      <c r="K75" s="166" t="s">
+      <c r="D75" s="169"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="K75" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="L75" s="108"/>
-      <c r="M75" s="108">
+      <c r="L75" s="111"/>
+      <c r="M75" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C76" s="162" t="s">
+    <row r="76" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C76" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="162"/>
-      <c r="E76" s="162"/>
+      <c r="D76" s="170"/>
+      <c r="E76" s="170"/>
       <c r="F76" s="34"/>
-      <c r="G76" s="120" t="s">
+      <c r="G76" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="H76" s="120"/>
-      <c r="I76" s="120"/>
-      <c r="K76" s="167"/>
-      <c r="L76" s="109"/>
-      <c r="M76" s="109"/>
-    </row>
-    <row r="77" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H76" s="147"/>
+      <c r="I76" s="147"/>
+      <c r="K76" s="168"/>
+      <c r="L76" s="110"/>
+      <c r="M76" s="110"/>
+    </row>
+    <row r="77" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C77" s="2" t="s">
         <v>97</v>
       </c>
@@ -10962,15 +10961,15 @@
         <v>1</v>
       </c>
       <c r="I77" s="10"/>
-      <c r="K77" s="166" t="s">
+      <c r="K77" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="L77" s="108"/>
-      <c r="M77" s="108">
+      <c r="L77" s="111"/>
+      <c r="M77" s="111">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C78" s="2" t="s">
         <v>100</v>
       </c>
@@ -10986,11 +10985,11 @@
       <c r="I78" s="10">
         <v>1</v>
       </c>
-      <c r="K78" s="167"/>
-      <c r="L78" s="109"/>
-      <c r="M78" s="109"/>
-    </row>
-    <row r="79" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K78" s="168"/>
+      <c r="L78" s="110"/>
+      <c r="M78" s="110"/>
+    </row>
+    <row r="79" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C79" s="2" t="s">
         <v>123</v>
       </c>
@@ -11002,19 +11001,19 @@
       <c r="G79" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H79" s="108"/>
-      <c r="I79" s="108">
+      <c r="H79" s="111"/>
+      <c r="I79" s="111">
         <v>1</v>
       </c>
-      <c r="K79" s="166" t="s">
+      <c r="K79" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="L79" s="108"/>
-      <c r="M79" s="108">
+      <c r="L79" s="111"/>
+      <c r="M79" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C80" s="2" t="s">
         <v>124</v>
       </c>
@@ -11028,13 +11027,13 @@
       <c r="G80" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="109"/>
-      <c r="I80" s="109"/>
-      <c r="K80" s="167"/>
-      <c r="L80" s="109"/>
-      <c r="M80" s="109"/>
-    </row>
-    <row r="81" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="K80" s="168"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="110"/>
+    </row>
+    <row r="81" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C81" s="2" t="s">
         <v>126</v>
       </c>
@@ -11052,11 +11051,11 @@
         <v>1</v>
       </c>
       <c r="I81" s="10"/>
-      <c r="K81" s="108"/>
-      <c r="L81" s="108"/>
-      <c r="M81" s="108"/>
-    </row>
-    <row r="82" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K81" s="111"/>
+      <c r="L81" s="111"/>
+      <c r="M81" s="111"/>
+    </row>
+    <row r="82" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C82" s="2" t="s">
         <v>147</v>
       </c>
@@ -11072,11 +11071,11 @@
       <c r="I82" s="10">
         <v>1</v>
       </c>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="M82" s="109"/>
-    </row>
-    <row r="83" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K82" s="110"/>
+      <c r="L82" s="110"/>
+      <c r="M82" s="110"/>
+    </row>
+    <row r="83" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C83" s="2" t="s">
         <v>148</v>
       </c>
@@ -11088,15 +11087,15 @@
       <c r="G83" s="2"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="K83" s="108" t="s">
+      <c r="K83" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="L83" s="108"/>
-      <c r="M83" s="108">
+      <c r="L83" s="111"/>
+      <c r="M83" s="111">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C84" s="2" t="s">
         <v>149</v>
       </c>
@@ -11110,43 +11109,43 @@
       <c r="G84" s="2"/>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
-      <c r="K84" s="109"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="109"/>
-    </row>
-    <row r="85" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="K85" s="108"/>
-      <c r="L85" s="108"/>
-      <c r="M85" s="108"/>
-    </row>
-    <row r="86" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C86" s="161" t="s">
+      <c r="K84" s="110"/>
+      <c r="L84" s="110"/>
+      <c r="M84" s="110"/>
+    </row>
+    <row r="85" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K85" s="111"/>
+      <c r="L85" s="111"/>
+      <c r="M85" s="111"/>
+    </row>
+    <row r="86" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C86" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="161"/>
-      <c r="E86" s="161"/>
-      <c r="F86" s="161"/>
-      <c r="G86" s="161"/>
-      <c r="H86" s="161"/>
-      <c r="I86" s="161"/>
-      <c r="K86" s="109"/>
-      <c r="L86" s="109"/>
-      <c r="M86" s="109"/>
-    </row>
-    <row r="87" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C87" s="162" t="s">
+      <c r="D86" s="172"/>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
+      <c r="G86" s="172"/>
+      <c r="H86" s="172"/>
+      <c r="I86" s="172"/>
+      <c r="K86" s="110"/>
+      <c r="L86" s="110"/>
+      <c r="M86" s="110"/>
+    </row>
+    <row r="87" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C87" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="D87" s="162"/>
-      <c r="E87" s="162"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
       <c r="F87" s="34"/>
-      <c r="G87" s="120" t="s">
+      <c r="G87" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="H87" s="120"/>
-      <c r="I87" s="120"/>
-    </row>
-    <row r="88" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H87" s="147"/>
+      <c r="I87" s="147"/>
+    </row>
+    <row r="88" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C88" s="2" t="s">
         <v>140</v>
       </c>
@@ -11163,7 +11162,7 @@
       </c>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C89" s="2" t="s">
         <v>141</v>
       </c>
@@ -11179,13 +11178,13 @@
       <c r="I89" s="2">
         <v>1</v>
       </c>
-      <c r="K89" s="163" t="s">
+      <c r="K89" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="L89" s="163"/>
-      <c r="M89" s="163"/>
-    </row>
-    <row r="90" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L89" s="171"/>
+      <c r="M89" s="171"/>
+    </row>
+    <row r="90" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C90" s="2" t="s">
         <v>142</v>
       </c>
@@ -11201,13 +11200,13 @@
       <c r="I90" s="2">
         <v>1</v>
       </c>
-      <c r="K90" s="163" t="s">
+      <c r="K90" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="L90" s="163"/>
-      <c r="M90" s="163"/>
-    </row>
-    <row r="91" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L90" s="171"/>
+      <c r="M90" s="171"/>
+    </row>
+    <row r="91" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C91" s="2" t="s">
         <v>144</v>
       </c>
@@ -11225,13 +11224,13 @@
       <c r="I91" s="16">
         <v>1</v>
       </c>
-      <c r="K91" s="163" t="s">
+      <c r="K91" s="171" t="s">
         <v>106</v>
       </c>
-      <c r="L91" s="163"/>
-      <c r="M91" s="163"/>
-    </row>
-    <row r="92" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L91" s="171"/>
+      <c r="M91" s="171"/>
+    </row>
+    <row r="92" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C92" s="2" t="s">
         <v>146</v>
       </c>
@@ -11243,13 +11242,13 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-      <c r="K92" s="163" t="s">
+      <c r="K92" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="L92" s="163"/>
-      <c r="M92" s="163"/>
-    </row>
-    <row r="93" spans="3:13" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L92" s="171"/>
+      <c r="M92" s="171"/>
+    </row>
+    <row r="93" spans="3:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C93" s="2" t="s">
         <v>155</v>
       </c>
@@ -11261,13 +11260,13 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-      <c r="K93" s="163" t="s">
+      <c r="K93" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="L93" s="163"/>
-      <c r="M93" s="163"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L93" s="171"/>
+      <c r="M93" s="171"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C94" s="2" t="s">
         <v>156</v>
       </c>
@@ -11280,7 +11279,7 @@
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C95" s="2" t="s">
         <v>143</v>
       </c>
@@ -11293,81 +11292,81 @@
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C102" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C105" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C106" t="s">
         <v>98</v>
       </c>
-      <c r="K106" s="169" t="s">
+      <c r="K106" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="L106" s="170"/>
-      <c r="M106" s="171"/>
-    </row>
-    <row r="107" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="K107" s="172"/>
-      <c r="L107" s="173"/>
-      <c r="M107" s="174"/>
-    </row>
-    <row r="108" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C108" s="168" t="s">
+      <c r="L106" s="162"/>
+      <c r="M106" s="163"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="K107" s="164"/>
+      <c r="L107" s="165"/>
+      <c r="M107" s="166"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C108" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="D108" s="168"/>
-      <c r="E108" s="168"/>
-      <c r="F108" s="168"/>
-      <c r="G108" s="168"/>
-      <c r="H108" s="168"/>
-      <c r="I108" s="168"/>
-      <c r="K108" s="166" t="s">
+      <c r="D108" s="169"/>
+      <c r="E108" s="169"/>
+      <c r="F108" s="169"/>
+      <c r="G108" s="169"/>
+      <c r="H108" s="169"/>
+      <c r="I108" s="169"/>
+      <c r="K108" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="L108" s="108"/>
-      <c r="M108" s="108">
+      <c r="L108" s="111"/>
+      <c r="M108" s="111">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C109" s="162" t="s">
+    <row r="109" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C109" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="D109" s="162"/>
-      <c r="E109" s="162"/>
+      <c r="D109" s="170"/>
+      <c r="E109" s="170"/>
       <c r="F109" s="34"/>
-      <c r="G109" s="120" t="s">
+      <c r="G109" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="H109" s="120"/>
-      <c r="I109" s="120"/>
-      <c r="K109" s="167"/>
-      <c r="L109" s="109"/>
-      <c r="M109" s="109"/>
-    </row>
-    <row r="110" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H109" s="147"/>
+      <c r="I109" s="147"/>
+      <c r="K109" s="168"/>
+      <c r="L109" s="110"/>
+      <c r="M109" s="110"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C110" s="2" t="s">
         <v>157</v>
       </c>
@@ -11383,15 +11382,15 @@
         <v>1</v>
       </c>
       <c r="I110" s="10"/>
-      <c r="K110" s="164" t="s">
+      <c r="K110" s="176" t="s">
         <v>122</v>
       </c>
-      <c r="L110" s="108"/>
-      <c r="M110" s="108">
+      <c r="L110" s="111"/>
+      <c r="M110" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C111" s="2" t="s">
         <v>158</v>
       </c>
@@ -11407,11 +11406,11 @@
       <c r="I111" s="10">
         <v>1</v>
       </c>
-      <c r="K111" s="165"/>
-      <c r="L111" s="109"/>
-      <c r="M111" s="109"/>
-    </row>
-    <row r="112" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K111" s="177"/>
+      <c r="L111" s="110"/>
+      <c r="M111" s="110"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C112" s="2" t="s">
         <v>159</v>
       </c>
@@ -11423,19 +11422,19 @@
       <c r="G112" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="H112" s="175"/>
-      <c r="I112" s="175">
+      <c r="H112" s="174"/>
+      <c r="I112" s="174">
         <v>1</v>
       </c>
-      <c r="K112" s="108" t="s">
+      <c r="K112" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="L112" s="108"/>
-      <c r="M112" s="108">
+      <c r="L112" s="111"/>
+      <c r="M112" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -11443,13 +11442,13 @@
       <c r="G113" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="H113" s="176"/>
-      <c r="I113" s="176"/>
-      <c r="K113" s="109"/>
-      <c r="L113" s="109"/>
-      <c r="M113" s="109"/>
-    </row>
-    <row r="114" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H113" s="175"/>
+      <c r="I113" s="175"/>
+      <c r="K113" s="110"/>
+      <c r="L113" s="110"/>
+      <c r="M113" s="110"/>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -11461,15 +11460,15 @@
         <v>1</v>
       </c>
       <c r="I114" s="10"/>
-      <c r="K114" s="108" t="s">
+      <c r="K114" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="L114" s="108"/>
-      <c r="M114" s="108">
+      <c r="L114" s="111"/>
+      <c r="M114" s="111">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C115" s="2" t="s">
         <v>165</v>
       </c>
@@ -11485,11 +11484,11 @@
       <c r="I115" s="10">
         <v>1</v>
       </c>
-      <c r="K115" s="109"/>
-      <c r="L115" s="109"/>
-      <c r="M115" s="109"/>
-    </row>
-    <row r="116" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K115" s="110"/>
+      <c r="L115" s="110"/>
+      <c r="M115" s="110"/>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C116" s="2" t="s">
         <v>164</v>
       </c>
@@ -11501,11 +11500,11 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-      <c r="K116" s="108"/>
-      <c r="L116" s="108"/>
-      <c r="M116" s="108"/>
-    </row>
-    <row r="117" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="K116" s="111"/>
+      <c r="L116" s="111"/>
+      <c r="M116" s="111"/>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C117" s="2" t="s">
         <v>160</v>
       </c>
@@ -11517,43 +11516,43 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-      <c r="K117" s="109"/>
-      <c r="L117" s="109"/>
-      <c r="M117" s="109"/>
-    </row>
-    <row r="118" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="K118" s="108"/>
-      <c r="L118" s="108"/>
-      <c r="M118" s="108"/>
-    </row>
-    <row r="119" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C119" s="161" t="s">
+      <c r="K117" s="110"/>
+      <c r="L117" s="110"/>
+      <c r="M117" s="110"/>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="K118" s="111"/>
+      <c r="L118" s="111"/>
+      <c r="M118" s="111"/>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C119" s="172" t="s">
         <v>166</v>
       </c>
-      <c r="D119" s="161"/>
-      <c r="E119" s="161"/>
-      <c r="F119" s="161"/>
-      <c r="G119" s="161"/>
-      <c r="H119" s="161"/>
-      <c r="I119" s="161"/>
-      <c r="K119" s="109"/>
-      <c r="L119" s="109"/>
-      <c r="M119" s="109"/>
-    </row>
-    <row r="120" spans="3:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C120" s="162" t="s">
+      <c r="D119" s="172"/>
+      <c r="E119" s="172"/>
+      <c r="F119" s="172"/>
+      <c r="G119" s="172"/>
+      <c r="H119" s="172"/>
+      <c r="I119" s="172"/>
+      <c r="K119" s="110"/>
+      <c r="L119" s="110"/>
+      <c r="M119" s="110"/>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C120" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="D120" s="162"/>
-      <c r="E120" s="162"/>
+      <c r="D120" s="170"/>
+      <c r="E120" s="170"/>
       <c r="F120" s="34"/>
-      <c r="G120" s="120" t="s">
+      <c r="G120" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="H120" s="120"/>
-      <c r="I120" s="120"/>
-    </row>
-    <row r="121" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="H120" s="147"/>
+      <c r="I120" s="147"/>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C121" s="2" t="s">
         <v>169</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -11580,13 +11579,13 @@
       <c r="I122" s="2">
         <v>1</v>
       </c>
-      <c r="K122" s="163" t="s">
+      <c r="K122" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="L122" s="163"/>
-      <c r="M122" s="163"/>
-    </row>
-    <row r="123" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L122" s="171"/>
+      <c r="M122" s="171"/>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -11598,13 +11597,13 @@
       <c r="I123" s="2">
         <v>1</v>
       </c>
-      <c r="K123" s="163" t="s">
+      <c r="K123" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="L123" s="163"/>
-      <c r="M123" s="163"/>
-    </row>
-    <row r="124" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L123" s="171"/>
+      <c r="M123" s="171"/>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -11612,13 +11611,13 @@
       <c r="G124" s="18"/>
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
-      <c r="K124" s="163" t="s">
+      <c r="K124" s="171" t="s">
         <v>106</v>
       </c>
-      <c r="L124" s="163"/>
-      <c r="M124" s="163"/>
-    </row>
-    <row r="125" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L124" s="171"/>
+      <c r="M124" s="171"/>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -11626,13 +11625,13 @@
       <c r="G125" s="2"/>
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
-      <c r="K125" s="163" t="s">
+      <c r="K125" s="171" t="s">
         <v>107</v>
       </c>
-      <c r="L125" s="163"/>
-      <c r="M125" s="163"/>
-    </row>
-    <row r="126" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L125" s="171"/>
+      <c r="M125" s="171"/>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -11640,13 +11639,13 @@
       <c r="G126" s="18"/>
       <c r="H126" s="16"/>
       <c r="I126" s="16"/>
-      <c r="K126" s="163" t="s">
+      <c r="K126" s="171" t="s">
         <v>108</v>
       </c>
-      <c r="L126" s="163"/>
-      <c r="M126" s="163"/>
-    </row>
-    <row r="127" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L126" s="171"/>
+      <c r="M126" s="171"/>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -11655,7 +11654,7 @@
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
     </row>
-    <row r="128" spans="3:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:13" x14ac:dyDescent="0.4">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -11666,17 +11665,89 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K85:K86"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="L85:L86"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="K43:M44"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="L83:L84"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="K73:M74"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="C75:I75"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="C108:I108"/>
+    <mergeCell ref="K106:M107"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="G76:I76"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K29:M29"/>
@@ -11701,89 +11772,17 @@
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="M51:M52"/>
     <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L83:L84"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="K73:M74"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="C75:I75"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="C108:I108"/>
-    <mergeCell ref="K106:M107"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="K43:M44"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="K126:M126"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="C119:I119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K85:K86"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="L85:L86"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11803,20 +11802,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.9140625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="43.4140625" customWidth="1"/>
-    <col min="4" max="4" width="1.9140625" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="43.375" customWidth="1"/>
+    <col min="4" max="4" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>68</v>
       </c>
@@ -11827,7 +11826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="106" t="s">
         <v>57</v>
       </c>
@@ -11838,7 +11837,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="106"/>
       <c r="B5" s="2" t="s">
         <v>71</v>
@@ -11847,7 +11846,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="106"/>
       <c r="B6" s="2" t="s">
         <v>72</v>
@@ -11856,7 +11855,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="106"/>
       <c r="B7" s="2" t="s">
         <v>73</v>
@@ -11865,14 +11864,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="106" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="106"/>
       <c r="B9" s="2" t="s">
         <v>71</v>
@@ -11881,7 +11880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="106"/>
       <c r="B10" s="2" t="s">
         <v>72</v>
@@ -11890,7 +11889,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="106"/>
       <c r="B11" s="2" t="s">
         <v>73</v>
@@ -11899,19 +11898,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="106" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="106"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="106"/>
       <c r="B14" s="2" t="s">
         <v>72</v>
@@ -11920,7 +11919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="106"/>
       <c r="B15" s="2" t="s">
         <v>73</v>
@@ -11929,42 +11928,42 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="111" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="106"/>
       <c r="B17" s="178"/>
       <c r="C17" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="106"/>
       <c r="B18" s="178"/>
       <c r="C18" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="106"/>
-      <c r="B19" s="109"/>
+      <c r="B19" s="110"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>75</v>
       </c>
@@ -11975,7 +11974,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="106" t="s">
         <v>26</v>
       </c>
@@ -11986,7 +11985,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="106"/>
       <c r="B25" s="17" t="s">
         <v>79</v>
@@ -11995,14 +11994,14 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="106"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="106" t="s">
         <v>27</v>
       </c>
@@ -12013,21 +12012,21 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="106"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="106"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="106" t="s">
         <v>76</v>
       </c>
@@ -12038,28 +12037,28 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="106"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="106"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="106"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="106" t="s">
         <v>28</v>
       </c>
@@ -12070,28 +12069,28 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="106"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="106"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="106"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="106" t="s">
         <v>29</v>
       </c>
@@ -12102,28 +12101,28 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="106"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="106"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="106"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="2.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="42" spans="1:3" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B16:B19"/>
